--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/malcolm_gfeller_studentfr_ch/Documents/Fichiers de conversation Microsoft Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{31D7CAE5-9511-4975-89EF-737ED1D9265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0AE63AB-BF73-4365-9A76-95EB18D2C693}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{31D7CAE5-9511-4975-89EF-737ED1D9265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CAF711F-E903-484D-9CD5-CFC1AD217FC1}"/>
   <bookViews>
-    <workbookView xWindow="-10800" yWindow="6180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Planning</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Fonctionnement API Gateway</t>
+  </si>
+  <si>
+    <t>Fonctionnement ServiceRest1</t>
+  </si>
+  <si>
+    <t>Fonctionnement ServiceRest2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagramme séquence système </t>
   </si>
 </sst>
 </file>
@@ -863,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -920,45 +932,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1041,6 +1014,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,80 +1414,80 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="61">
         <v>300233</v>
       </c>
-      <c r="Q3" s="31"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1470,32 +1497,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="32" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="32" t="s">
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="32" t="s">
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="66"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1549,429 +1576,493 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="25" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="47" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="46"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="47" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="46"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="46"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="46"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="46"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="46"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="46"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="46"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="46"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="46"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="46"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="46"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="33"/>
+    </row>
+    <row r="27" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="33"/>
+    </row>
+    <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="33"/>
+    </row>
+    <row r="29" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="64"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="65"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K9:K27"/>
-    <mergeCell ref="I9:I27"/>
-    <mergeCell ref="J9:J27"/>
+    <mergeCell ref="K9:K30"/>
+    <mergeCell ref="I9:I30"/>
+    <mergeCell ref="J9:J30"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
@@ -1983,7 +2074,7 @@
     <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 133&amp;RPlanning</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
@@ -1998,8 +2089,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,11 +2101,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2054,7 +2145,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="16">
-        <v>1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2087,21 +2178,35 @@
         <v>56</v>
       </c>
       <c r="C11" s="16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="15">
+        <v>45016</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="16"/>
     </row>
@@ -2147,7 +2252,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="16">
         <f>SUM(C8:C21)</f>
-        <v>6.25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2203,6 +2308,62 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="39" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50f196367aec8f37d0a398234b0f7b17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78bd20473fe67c3676d1740625aa318f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2644,62 +2805,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
@@ -2709,6 +2814,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2726,15 +2842,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/malcolm_gfeller_studentfr_ch/Documents/Fichiers de conversation Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\desousar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{31D7CAE5-9511-4975-89EF-737ED1D9265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CAF711F-E903-484D-9CD5-CFC1AD217FC1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24FD9F-F007-44FE-AA6E-4EC448E0E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Planning</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t xml:space="preserve">Diagramme séquence système </t>
+  </si>
+  <si>
+    <t>mise en place readME sur gitHub</t>
+  </si>
+  <si>
+    <t>commencement de l'inplémentation sur les REST</t>
   </si>
 </sst>
 </file>
@@ -1014,6 +1020,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1052,21 +1073,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1411,13 +1417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1427,67 +1433,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
       <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="61">
+      <c r="P3" s="66">
         <v>300233</v>
       </c>
-      <c r="Q3" s="63"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1497,32 +1503,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="64" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="64" t="s">
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="64" t="s">
+      <c r="M7" s="70"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="66"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="71"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1596,13 +1602,13 @@
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="59" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="31"/>
@@ -1623,9 +1629,9 @@
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
       <c r="H10" s="31"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="55"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="31"/>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
@@ -1646,9 +1652,9 @@
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="31"/>
       <c r="M11" s="32"/>
       <c r="N11" s="33"/>
@@ -1669,9 +1675,9 @@
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="55"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="31"/>
       <c r="M12" s="32"/>
       <c r="N12" s="33"/>
@@ -1692,9 +1698,9 @@
         <v>66</v>
       </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="55"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="31"/>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
@@ -1713,9 +1719,9 @@
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="55"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
       <c r="N14" s="33"/>
@@ -1731,15 +1737,15 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="67"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="55"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="38"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="68"/>
+      <c r="N15" s="55"/>
       <c r="O15" s="31"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
@@ -1752,15 +1758,15 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="67"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="55"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="38"/>
       <c r="M16" s="36"/>
-      <c r="N16" s="68"/>
+      <c r="N16" s="55"/>
       <c r="O16" s="31"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
@@ -1776,9 +1782,9 @@
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="31"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="55"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="60"/>
       <c r="L17" s="31"/>
       <c r="M17" s="32"/>
       <c r="N17" s="33"/>
@@ -1796,14 +1802,14 @@
       <c r="E18" s="31"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="55"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="40"/>
       <c r="M18" s="47"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="67"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="54"/>
       <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1817,14 +1823,14 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="55"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="60"/>
       <c r="L19" s="40"/>
       <c r="M19" s="47"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="67"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="54"/>
       <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1838,14 +1844,14 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="55"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="40"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="67"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="54"/>
       <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1859,14 +1865,14 @@
       <c r="F21" s="32"/>
       <c r="G21" s="39"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="55"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="60"/>
       <c r="L21" s="31"/>
       <c r="M21" s="32"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="67"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="54"/>
       <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1878,16 +1884,18 @@
       <c r="D22" s="33"/>
       <c r="E22" s="31"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="H22" s="40"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="55"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="31"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="67"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="54"/>
       <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1901,9 +1909,9 @@
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="55"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="31"/>
       <c r="M23" s="32"/>
       <c r="N23" s="33"/>
@@ -1920,16 +1928,16 @@
       <c r="D24" s="33"/>
       <c r="E24" s="31"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="69"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="49"/>
-      <c r="N24" s="70"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="48"/>
-      <c r="P24" s="67"/>
+      <c r="P24" s="54"/>
       <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1941,16 +1949,16 @@
       <c r="D25" s="33"/>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="69"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="56"/>
       <c r="M25" s="49"/>
-      <c r="N25" s="70"/>
+      <c r="N25" s="57"/>
       <c r="O25" s="48"/>
-      <c r="P25" s="67"/>
+      <c r="P25" s="54"/>
       <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1962,16 +1970,16 @@
       <c r="D26" s="33"/>
       <c r="E26" s="31"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="48"/>
       <c r="M26" s="49"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="67"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
       <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1983,16 +1991,16 @@
       <c r="D27" s="33"/>
       <c r="E27" s="31"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="68"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="48"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="55"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="60"/>
       <c r="L27" s="48"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="67"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
       <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2004,16 +2012,16 @@
       <c r="D28" s="33"/>
       <c r="E28" s="31"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="68"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="48"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="55"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="60"/>
       <c r="L28" s="48"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="67"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2027,13 +2035,13 @@
       <c r="F29" s="42"/>
       <c r="G29" s="43"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="55"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="60"/>
       <c r="L29" s="41"/>
       <c r="M29" s="42"/>
       <c r="N29" s="43"/>
-      <c r="O29" s="71"/>
+      <c r="O29" s="58"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="51"/>
     </row>
@@ -2048,9 +2056,9 @@
       <c r="F30" s="45"/>
       <c r="G30" s="46"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="56"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="44"/>
       <c r="M30" s="45"/>
       <c r="N30" s="46"/>
@@ -2084,13 +2092,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Feuil2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,11 +2109,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2200,28 +2208,42 @@
         <v>0</v>
       </c>
       <c r="C13" s="16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>45016</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15">
+        <v>45016</v>
+      </c>
       <c r="B16" s="12"/>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="15">
+        <v>45016</v>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="16"/>
     </row>
@@ -2252,7 +2274,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="16">
         <f>SUM(C8:C21)</f>
-        <v>18</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,71 +2321,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="39" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50f196367aec8f37d0a398234b0f7b17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78bd20473fe67c3676d1740625aa318f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2805,26 +2762,72 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2842,4 +2845,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\desousar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EA0F0A-6292-4321-AA84-AD217FEA2931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17281D92-DE85-4159-AFDA-B0C022CC8F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13815" yWindow="3825" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -2097,8 +2097,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="16">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="16">
         <f>SUM(C8:C21)</f>
-        <v>20.5</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2321,71 +2321,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="39" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50f196367aec8f37d0a398234b0f7b17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78bd20473fe67c3676d1740625aa318f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2827,26 +2762,72 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2864,4 +2845,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\desousar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/raphael_desousa_studentfr_ch/Documents/3 ième année/133/Projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17281D92-DE85-4159-AFDA-B0C022CC8F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{17281D92-DE85-4159-AFDA-B0C022CC8F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9845B67-6F8D-4585-8898-57DE1FDBF2AE}"/>
   <bookViews>
-    <workbookView xWindow="13815" yWindow="3825" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3825" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>Planning</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>commencement de l'inplémentation sur les REST</t>
+  </si>
+  <si>
+    <t>théorie</t>
+  </si>
+  <si>
+    <t>REST 1 réglement de problème</t>
   </si>
 </sst>
 </file>
@@ -1422,8 +1428,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1887,7 +1893,9 @@
       <c r="G22" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="40"/>
+      <c r="H22" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="I22" s="63"/>
       <c r="J22" s="63"/>
       <c r="K22" s="60"/>
@@ -2098,7 +2106,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,22 +2238,30 @@
         <v>72</v>
       </c>
       <c r="C15" s="16">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>45016</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="16"/>
+        <v>45022</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>45016</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="16"/>
+        <v>45022</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
@@ -2274,7 +2290,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="16">
         <f>SUM(C8:C21)</f>
-        <v>20.25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2763,6 +2779,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
@@ -2818,15 +2843,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
@@ -2848,6 +2864,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2856,12 +2880,4 @@
     <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/raphael_desousa_studentfr_ch/Documents/3 ième année/133/Projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{17281D92-DE85-4159-AFDA-B0C022CC8F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9845B67-6F8D-4585-8898-57DE1FDBF2AE}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{17281D92-DE85-4159-AFDA-B0C022CC8F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ACBB7B2-5445-4B68-8FAC-B33F1B2C8F30}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3825" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>Planning</t>
   </si>
@@ -295,9 +295,6 @@
     <t xml:space="preserve">Test Techno de 1 à 8 </t>
   </si>
   <si>
-    <t>Malcolm et Raphaël / classe 300232</t>
-  </si>
-  <si>
     <t>Test Techno 10</t>
   </si>
   <si>
@@ -359,13 +356,49 @@
   </si>
   <si>
     <t>REST 1 réglement de problème</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Malcolm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et Raphaël / classe 300232</t>
+    </r>
+  </si>
+  <si>
+    <t>Malcolm</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Règlement de problème sur le l'accès à la db</t>
+  </si>
+  <si>
+    <t>accès au donnée de la db</t>
+  </si>
+  <si>
+    <t>Discution avec le prof est JT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +482,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +573,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -887,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -1080,6 +1131,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,19 +1645,19 @@
         <v>26</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
@@ -1654,7 +1707,7 @@
       <c r="D11" s="33"/>
       <c r="E11" s="31"/>
       <c r="F11" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="31"/>
@@ -1677,7 +1730,7 @@
       <c r="D12" s="33"/>
       <c r="E12" s="31"/>
       <c r="F12" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="31"/>
@@ -1701,7 +1754,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="63"/>
@@ -1737,7 +1790,7 @@
     </row>
     <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
@@ -1758,7 +1811,7 @@
     </row>
     <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
@@ -1800,7 +1853,7 @@
     </row>
     <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="32"/>
@@ -1820,7 +1873,7 @@
     </row>
     <row r="19" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="32"/>
@@ -1841,7 +1894,7 @@
     </row>
     <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="32"/>
@@ -1862,7 +1915,7 @@
     </row>
     <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
@@ -1883,7 +1936,7 @@
     </row>
     <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
@@ -1891,10 +1944,10 @@
       <c r="E22" s="31"/>
       <c r="F22" s="32"/>
       <c r="G22" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="63"/>
       <c r="J22" s="63"/>
@@ -1929,7 +1982,7 @@
     </row>
     <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="32"/>
@@ -1950,7 +2003,7 @@
     </row>
     <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
@@ -1971,7 +2024,7 @@
     </row>
     <row r="26" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
@@ -1992,7 +2045,7 @@
     </row>
     <row r="27" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
@@ -2013,7 +2066,7 @@
     </row>
     <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
@@ -2103,46 +2156,55 @@
   <sheetPr codeName="Feuil2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="65" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -2152,8 +2214,17 @@
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>50</v>
       </c>
@@ -2163,52 +2234,97 @@
       <c r="C8" s="16">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="16">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>45015</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="E9" s="15">
+        <v>45015</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>45016</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="15">
+        <v>45016</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>45016</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="15">
+        <v>45016</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>45016</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="15">
+        <v>45016</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>45016</v>
       </c>
@@ -2218,107 +2334,194 @@
       <c r="C13" s="16">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="15">
+        <v>45016</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>45016</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="16">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="15">
+        <v>45016</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>45016</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="16">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="15">
+        <v>45016</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>45022</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="15">
+        <v>45022</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>45022</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="16">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="15">
+        <v>45022</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>45043</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>45043</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>45043</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>45043</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>45043</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="12"/>
       <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="15"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="16">
         <f>SUM(C8:C21)</f>
+        <v>27.5</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="16">
+        <f>SUM(G8:G21)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
         <v>25</v>
       </c>
@@ -2328,7 +2531,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 133&amp;RJournal de travail</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
@@ -2779,15 +2982,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
@@ -2843,6 +3037,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
@@ -2864,14 +3067,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2880,4 +3075,12 @@
     <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/raphael_desousa_studentfr_ch/Documents/3 ième année/133/Projet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\GfellerM01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{17281D92-DE85-4159-AFDA-B0C022CC8F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ACBB7B2-5445-4B68-8FAC-B33F1B2C8F30}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED82E912-4C2E-4DAF-BF0A-335CEC769553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>Planning</t>
   </si>
@@ -392,6 +392,15 @@
   </si>
   <si>
     <t>Discution avec le prof est JT</t>
+  </si>
+  <si>
+    <t>Db pour les utilisateurs</t>
+  </si>
+  <si>
+    <t>getUsers dans serviceRest1</t>
+  </si>
+  <si>
+    <t>checkLogin dans serviceRest1</t>
   </si>
 </sst>
 </file>
@@ -1092,6 +1101,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1131,8 +1142,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,67 +1501,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
       <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="66">
+      <c r="P3" s="68">
         <v>300233</v>
       </c>
-      <c r="Q3" s="68"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1562,32 +1571,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="69" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="69" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="69" t="s">
+      <c r="M7" s="72"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="71"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="73"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1661,13 +1670,13 @@
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="61" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="31"/>
@@ -1688,9 +1697,9 @@
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
       <c r="H10" s="31"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="60"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="31"/>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
@@ -1711,9 +1720,9 @@
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="60"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="31"/>
       <c r="M11" s="32"/>
       <c r="N11" s="33"/>
@@ -1734,9 +1743,9 @@
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="60"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="62"/>
       <c r="L12" s="31"/>
       <c r="M12" s="32"/>
       <c r="N12" s="33"/>
@@ -1757,9 +1766,9 @@
         <v>65</v>
       </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="60"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="31"/>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
@@ -1778,9 +1787,9 @@
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="60"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
       <c r="N14" s="33"/>
@@ -1799,9 +1808,9 @@
       <c r="F15" s="54"/>
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="60"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="38"/>
       <c r="M15" s="36"/>
       <c r="N15" s="55"/>
@@ -1820,9 +1829,9 @@
       <c r="F16" s="54"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="60"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="38"/>
       <c r="M16" s="36"/>
       <c r="N16" s="55"/>
@@ -1841,9 +1850,9 @@
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="31"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="60"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="31"/>
       <c r="M17" s="32"/>
       <c r="N17" s="33"/>
@@ -1861,9 +1870,9 @@
       <c r="E18" s="31"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="60"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="40"/>
       <c r="M18" s="47"/>
       <c r="N18" s="55"/>
@@ -1882,9 +1891,9 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="60"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="40"/>
       <c r="M19" s="47"/>
       <c r="N19" s="55"/>
@@ -1903,9 +1912,9 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="60"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="40"/>
       <c r="M20" s="54"/>
       <c r="N20" s="55"/>
@@ -1924,9 +1933,9 @@
       <c r="F21" s="32"/>
       <c r="G21" s="39"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="60"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="31"/>
       <c r="M21" s="32"/>
       <c r="N21" s="55"/>
@@ -1949,9 +1958,9 @@
       <c r="H22" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="60"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="31"/>
       <c r="M22" s="32"/>
       <c r="N22" s="55"/>
@@ -1970,9 +1979,9 @@
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="60"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="62"/>
       <c r="L23" s="31"/>
       <c r="M23" s="32"/>
       <c r="N23" s="33"/>
@@ -1991,9 +2000,9 @@
       <c r="F24" s="32"/>
       <c r="G24" s="55"/>
       <c r="H24" s="56"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="60"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="56"/>
       <c r="M24" s="49"/>
       <c r="N24" s="57"/>
@@ -2012,9 +2021,9 @@
       <c r="F25" s="32"/>
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="60"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="62"/>
       <c r="L25" s="56"/>
       <c r="M25" s="49"/>
       <c r="N25" s="57"/>
@@ -2033,9 +2042,9 @@
       <c r="F26" s="32"/>
       <c r="G26" s="55"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="60"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="62"/>
       <c r="L26" s="48"/>
       <c r="M26" s="49"/>
       <c r="N26" s="55"/>
@@ -2054,9 +2063,9 @@
       <c r="F27" s="32"/>
       <c r="G27" s="55"/>
       <c r="H27" s="48"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="60"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="48"/>
       <c r="M27" s="54"/>
       <c r="N27" s="55"/>
@@ -2075,9 +2084,9 @@
       <c r="F28" s="32"/>
       <c r="G28" s="55"/>
       <c r="H28" s="48"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="60"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="62"/>
       <c r="L28" s="48"/>
       <c r="M28" s="54"/>
       <c r="N28" s="55"/>
@@ -2096,9 +2105,9 @@
       <c r="F29" s="42"/>
       <c r="G29" s="43"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="60"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="62"/>
       <c r="L29" s="41"/>
       <c r="M29" s="42"/>
       <c r="N29" s="43"/>
@@ -2117,9 +2126,9 @@
       <c r="F30" s="45"/>
       <c r="G30" s="46"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="61"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="63"/>
       <c r="L30" s="44"/>
       <c r="M30" s="45"/>
       <c r="N30" s="46"/>
@@ -2158,8 +2167,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,11 +2182,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2197,14 +2206,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>50</v>
       </c>
@@ -2437,8 +2446,12 @@
       <c r="E18" s="15">
         <v>45043</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -2453,8 +2466,12 @@
       <c r="E19" s="15">
         <v>45043</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -2466,9 +2483,15 @@
       <c r="C20" s="16">
         <v>0.5</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="16"/>
+      <c r="E20" s="15">
+        <v>45043</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -2493,7 +2516,7 @@
       <c r="F22" s="12"/>
       <c r="G22" s="16">
         <f>SUM(G8:G21)</f>
-        <v>24</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2540,6 +2563,71 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="39" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50f196367aec8f37d0a398234b0f7b17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78bd20473fe67c3676d1740625aa318f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2981,72 +3069,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3064,23 +3106,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\GfellerM01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/raphael_desousa_studentfr_ch/Documents/3 ième année/133/Projet/projet/Module_133/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED82E912-4C2E-4DAF-BF0A-335CEC769553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16490620-714A-4739-81B3-4ABF9B35B37F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>Planning</t>
   </si>
@@ -401,6 +401,36 @@
   </si>
   <si>
     <t>checkLogin dans serviceRest1</t>
+  </si>
+  <si>
+    <t>Mise en place de l'ajoute des mangas</t>
+  </si>
+  <si>
+    <t>Mise en place de la modification de manga</t>
+  </si>
+  <si>
+    <t>Mise en place de l'ajoute, la modification et suppresion des favoris</t>
+  </si>
+  <si>
+    <t>Mise en place de la supression de manga</t>
+  </si>
+  <si>
+    <t>Documentation de projet</t>
+  </si>
+  <si>
+    <t>API-Gateway doPost pour login</t>
+  </si>
+  <si>
+    <t>Régler les problème d'hebergement</t>
+  </si>
+  <si>
+    <t>Visuel client</t>
+  </si>
+  <si>
+    <t>documentation et EMFAudit</t>
+  </si>
+  <si>
+    <t>Tests</t>
   </si>
 </sst>
 </file>
@@ -947,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -1103,6 +1133,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1501,67 +1534,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="70"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
       <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="69">
         <v>300233</v>
       </c>
-      <c r="Q3" s="70"/>
+      <c r="Q3" s="71"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1571,32 +1604,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="71" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="71" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="71" t="s">
+      <c r="L7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="71" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="74"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1670,13 +1703,13 @@
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="62" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="31"/>
@@ -1697,9 +1730,9 @@
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
       <c r="H10" s="31"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="62"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="31"/>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
@@ -1720,9 +1753,9 @@
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="62"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="31"/>
       <c r="M11" s="32"/>
       <c r="N11" s="33"/>
@@ -1743,9 +1776,9 @@
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="62"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="31"/>
       <c r="M12" s="32"/>
       <c r="N12" s="33"/>
@@ -1766,9 +1799,9 @@
         <v>65</v>
       </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="62"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="31"/>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
@@ -1787,9 +1820,9 @@
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="62"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
       <c r="N14" s="33"/>
@@ -1808,9 +1841,9 @@
       <c r="F15" s="54"/>
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="62"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="38"/>
       <c r="M15" s="36"/>
       <c r="N15" s="55"/>
@@ -1829,9 +1862,9 @@
       <c r="F16" s="54"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="62"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="38"/>
       <c r="M16" s="36"/>
       <c r="N16" s="55"/>
@@ -1850,9 +1883,9 @@
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="31"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="62"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="31"/>
       <c r="M17" s="32"/>
       <c r="N17" s="33"/>
@@ -1870,9 +1903,9 @@
       <c r="E18" s="31"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="62"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="40"/>
       <c r="M18" s="47"/>
       <c r="N18" s="55"/>
@@ -1891,9 +1924,9 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="62"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="40"/>
       <c r="M19" s="47"/>
       <c r="N19" s="55"/>
@@ -1912,9 +1945,9 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="62"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="40"/>
       <c r="M20" s="54"/>
       <c r="N20" s="55"/>
@@ -1933,9 +1966,9 @@
       <c r="F21" s="32"/>
       <c r="G21" s="39"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="62"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="31"/>
       <c r="M21" s="32"/>
       <c r="N21" s="55"/>
@@ -1958,9 +1991,9 @@
       <c r="H22" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="62"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="31"/>
       <c r="M22" s="32"/>
       <c r="N22" s="55"/>
@@ -1979,9 +2012,9 @@
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="62"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="31"/>
       <c r="M23" s="32"/>
       <c r="N23" s="33"/>
@@ -2000,9 +2033,9 @@
       <c r="F24" s="32"/>
       <c r="G24" s="55"/>
       <c r="H24" s="56"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="62"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="56"/>
       <c r="M24" s="49"/>
       <c r="N24" s="57"/>
@@ -2021,9 +2054,9 @@
       <c r="F25" s="32"/>
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="62"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="56"/>
       <c r="M25" s="49"/>
       <c r="N25" s="57"/>
@@ -2042,9 +2075,9 @@
       <c r="F26" s="32"/>
       <c r="G26" s="55"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="62"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="48"/>
       <c r="M26" s="49"/>
       <c r="N26" s="55"/>
@@ -2063,9 +2096,9 @@
       <c r="F27" s="32"/>
       <c r="G27" s="55"/>
       <c r="H27" s="48"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="62"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="48"/>
       <c r="M27" s="54"/>
       <c r="N27" s="55"/>
@@ -2084,9 +2117,9 @@
       <c r="F28" s="32"/>
       <c r="G28" s="55"/>
       <c r="H28" s="48"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="62"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="63"/>
       <c r="L28" s="48"/>
       <c r="M28" s="54"/>
       <c r="N28" s="55"/>
@@ -2105,9 +2138,9 @@
       <c r="F29" s="42"/>
       <c r="G29" s="43"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="62"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="63"/>
       <c r="L29" s="41"/>
       <c r="M29" s="42"/>
       <c r="N29" s="43"/>
@@ -2126,9 +2159,9 @@
       <c r="F30" s="45"/>
       <c r="G30" s="46"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="63"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="64"/>
       <c r="L30" s="44"/>
       <c r="M30" s="45"/>
       <c r="N30" s="46"/>
@@ -2165,10 +2198,10 @@
   <sheetPr codeName="Feuil2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,11 +2215,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2494,58 +2527,290 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="16"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A21" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="15">
+        <v>45044</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="E22" s="15">
+        <v>45044</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="15">
+        <v>45044</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="15">
+        <v>45044</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="E25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="16"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="16"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="16"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="16">
-        <f>SUM(C8:C21)</f>
-        <v>27.5</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="16">
+        <f>SUM(C8:C41)</f>
+        <v>34.5</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="16">
-        <f>SUM(G8:G21)</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="16">
+        <f>SUM(G8:G41)</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3080,10 +3345,17 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/raphael_desousa_studentfr_ch/Documents/3 ième année/133/Projet/projet/Module_133/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16490620-714A-4739-81B3-4ABF9B35B37F}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20AE9997-DF28-4D74-BE99-E56DD991291B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>Planning</t>
   </si>
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification du serv REST 2 </t>
+  </si>
+  <si>
+    <t>correction d'EMF audit</t>
+  </si>
+  <si>
+    <t>finition correction EMF audit</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2210,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,39 +2664,65 @@
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="15">
+        <v>45050</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="12"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="15">
+        <v>45050</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1</v>
+      </c>
       <c r="E29" s="15"/>
       <c r="F29" s="12"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="16"/>
+      <c r="A30" s="15">
+        <v>45050</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1</v>
+      </c>
       <c r="E30" s="15"/>
       <c r="F30" s="12"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="16"/>
+      <c r="A31" s="15">
+        <v>45051</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.5</v>
+      </c>
       <c r="E31" s="15"/>
       <c r="F31" s="12"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="15">
+        <v>45051</v>
+      </c>
       <c r="B32" s="12"/>
       <c r="C32" s="16"/>
       <c r="E32" s="15"/>
@@ -2695,7 +2730,9 @@
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="15">
+        <v>45051</v>
+      </c>
       <c r="B33" s="12"/>
       <c r="C33" s="16"/>
       <c r="E33" s="15"/>
@@ -2773,7 +2810,7 @@
       <c r="B42" s="12"/>
       <c r="C42" s="16">
         <f>SUM(C8:C41)</f>
-        <v>34.5</v>
+        <v>38.5</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>19</v>
@@ -2837,62 +2874,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="39" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50f196367aec8f37d0a398234b0f7b17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78bd20473fe67c3676d1740625aa318f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -3334,6 +3315,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
@@ -3343,24 +3380,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3378,4 +3397,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/raphael_desousa_studentfr_ch/Documents/3 ième année/133/Projet/projet/Module_133/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20AE9997-DF28-4D74-BE99-E56DD991291B}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E88406-DC98-4856-9200-52BC0F000B53}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>Planning</t>
   </si>
@@ -440,6 +440,30 @@
   </si>
   <si>
     <t>finition correction EMF audit</t>
+  </si>
+  <si>
+    <t>Discussions avec le prof</t>
+  </si>
+  <si>
+    <t>Login gateway -&gt; ServiceRest1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API-Gateway - apiAjoutManga </t>
+  </si>
+  <si>
+    <t>API-Gateway - apiAjoutFavoris</t>
+  </si>
+  <si>
+    <t>API-Gateway - apiGetManga</t>
+  </si>
+  <si>
+    <t>API-Gateway - apiGetFavoris</t>
+  </si>
+  <si>
+    <t>API-Gateway - apiDeleteManga</t>
+  </si>
+  <si>
+    <t>API-Gateway - apiDeleteFavoris</t>
   </si>
 </sst>
 </file>
@@ -1204,6 +1228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2210,7 +2238,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,9 +2673,15 @@
       <c r="C26" s="16">
         <v>0.5</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="15">
+        <v>45050</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -2659,9 +2693,15 @@
       <c r="C27" s="16">
         <v>1.25</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="16"/>
+      <c r="E27" s="15">
+        <v>45050</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -2673,9 +2713,15 @@
       <c r="C28" s="16">
         <v>1.5</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="16"/>
+      <c r="E28" s="15">
+        <v>45051</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -2687,9 +2733,15 @@
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="16"/>
+      <c r="E29" s="15">
+        <v>45051</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -2701,9 +2753,15 @@
       <c r="C30" s="16">
         <v>1</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="16"/>
+      <c r="E30" s="15">
+        <v>45051</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -2715,8 +2773,12 @@
       <c r="C31" s="16">
         <v>0.5</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="15">
+        <v>45051</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2725,8 +2787,12 @@
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="12"/>
+      <c r="E32" s="15">
+        <v>45051</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,8 +2801,12 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="15">
+        <v>45051</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2818,7 +2888,7 @@
       <c r="F42" s="12"/>
       <c r="G42" s="16">
         <f>SUM(G8:G41)</f>
-        <v>34.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2865,12 +2935,59 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3316,65 +3433,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3400,19 +3480,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/raphael_desousa_studentfr_ch/Documents/3 ième année/133/Projet/projet/Module_133/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E88406-DC98-4856-9200-52BC0F000B53}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D9564E2-BC1E-4B5B-8FFE-D064B27BE413}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>Planning</t>
   </si>
@@ -464,6 +464,18 @@
   </si>
   <si>
     <t>API-Gateway - apiDeleteFavoris</t>
+  </si>
+  <si>
+    <t>gestion Client</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>Client1</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -658,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1006,11 +1018,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -1207,6 +1256,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,10 +1286,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2237,8 +2291,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,7 +2377,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>45015</v>
       </c>
@@ -2333,15 +2387,11 @@
       <c r="C9" s="16">
         <v>3.5</v>
       </c>
-      <c r="E9" s="15">
-        <v>45015</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="16">
-        <v>3.5</v>
-      </c>
+      <c r="E9" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -2779,46 +2829,74 @@
       <c r="F31" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>45051</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="16">
+        <v>5</v>
+      </c>
       <c r="E32" s="15">
         <v>45051</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="16"/>
+      <c r="G32" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>45051</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E33" s="15">
         <v>45051</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="16"/>
+      <c r="A34" s="15">
+        <v>45099</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <v>45051</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="15">
+        <v>45099</v>
+      </c>
       <c r="B35" s="12"/>
       <c r="C35" s="16"/>
       <c r="E35" s="15"/>
@@ -2826,7 +2904,9 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="15">
+        <v>45099</v>
+      </c>
       <c r="B36" s="12"/>
       <c r="C36" s="16"/>
       <c r="E36" s="15"/>
@@ -2834,7 +2914,9 @@
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="15">
+        <v>45099</v>
+      </c>
       <c r="B37" s="12"/>
       <c r="C37" s="16"/>
       <c r="E37" s="15"/>
@@ -2880,7 +2962,7 @@
       <c r="B42" s="12"/>
       <c r="C42" s="16">
         <f>SUM(C8:C41)</f>
-        <v>38.5</v>
+        <v>46</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>19</v>
@@ -2922,8 +3004,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2935,62 +3018,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="39" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50f196367aec8f37d0a398234b0f7b17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78bd20473fe67c3676d1740625aa318f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -3432,6 +3459,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3442,24 +3525,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3479,6 +3544,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>

--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/raphael_desousa_studentfr_ch/Documents/3 ième année/133/Projet/projet/Module_133/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D9564E2-BC1E-4B5B-8FFE-D064B27BE413}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66853FFB-18CD-4B0C-A467-9EB2AE3AA27A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>Planning</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>Absent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mise en place du client </t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2295,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,7 +2884,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="16">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E34" s="15">
         <v>45051</v>
@@ -2897,8 +2900,12 @@
       <c r="A35" s="15">
         <v>45099</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="16">
+        <v>2</v>
+      </c>
       <c r="E35" s="15"/>
       <c r="F35" s="12"/>
       <c r="G35" s="16"/>
@@ -2907,16 +2914,18 @@
       <c r="A36" s="15">
         <v>45099</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0.25</v>
+      </c>
       <c r="E36" s="15"/>
       <c r="F36" s="12"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>45099</v>
-      </c>
+      <c r="A37" s="15"/>
       <c r="B37" s="12"/>
       <c r="C37" s="16"/>
       <c r="E37" s="15"/>
@@ -2962,7 +2971,7 @@
       <c r="B42" s="12"/>
       <c r="C42" s="16">
         <f>SUM(C8:C41)</f>
-        <v>46</v>
+        <v>48.5</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>19</v>
@@ -3460,6 +3469,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
@@ -3515,15 +3533,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65228189-199F-4C24-973F-99C34CC432BB}">
   <ds:schemaRefs>
@@ -3545,6 +3554,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3560,12 +3577,4 @@
     <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/133_GESTPROJ_G01.xlsx
+++ b/133_GESTPROJ_G01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/raphael_desousa_studentfr_ch/Documents/3 ième année/133/Projet/projet/Module_133/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66853FFB-18CD-4B0C-A467-9EB2AE3AA27A}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{FF7521F8-8F55-4F13-BC27-F31773F6DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF8BBBF-CAD6-47CE-B233-7C676BA7A78D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>Planning</t>
   </si>
@@ -479,6 +479,21 @@
   </si>
   <si>
     <t xml:space="preserve">mise en place du client </t>
+  </si>
+  <si>
+    <t>Implémentation du client</t>
+  </si>
+  <si>
+    <t>Revisions, préparations des mises en place</t>
+  </si>
+  <si>
+    <t>Implémentation client1</t>
+  </si>
+  <si>
+    <t>Documentation des TT</t>
+  </si>
+  <si>
+    <t>Implémentation API-Gateway</t>
   </si>
 </sst>
 </file>
@@ -2294,8 +2309,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,9 +2921,15 @@
       <c r="C35" s="16">
         <v>2</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="16"/>
+      <c r="E35" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
@@ -2920,33 +2941,63 @@
       <c r="C36" s="16">
         <v>0.25</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="16"/>
+      <c r="E36" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="16"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="16"/>
+      <c r="A37" s="15">
+        <v>45100</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="16">
+        <v>7</v>
+      </c>
+      <c r="E37" s="15">
+        <v>45099</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="12"/>
       <c r="C38" s="16"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="16"/>
+      <c r="E38" s="15">
+        <v>45100</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="12"/>
       <c r="C39" s="16"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="16"/>
+      <c r="E39" s="15">
+        <v>45100</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
@@ -2971,7 +3022,7 @@
       <c r="B42" s="12"/>
       <c r="C42" s="16">
         <f>SUM(C8:C41)</f>
-        <v>48.5</v>
+        <v>55.5</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>19</v>
@@ -2979,7 +3030,7 @@
       <c r="F42" s="12"/>
       <c r="G42" s="16">
         <f>SUM(G8:G41)</f>
-        <v>41.5</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3564,17 +3615,17 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>